--- a/点餐详情.xlsx
+++ b/点餐详情.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -703,19 +703,89 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>1132</v>
-      </c>
-    </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1133</v>
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>1217</v>
       </c>
     </row>
   </sheetData>

--- a/点餐详情.xlsx
+++ b/点餐详情.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>曹思远</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -552,218 +556,399 @@
       <c r="A3">
         <v>1031</v>
       </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N33" si="0">SUM(B3:M3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
         <v>1101</v>
       </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
         <v>1102</v>
       </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
         <v>1103</v>
       </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
         <v>1104</v>
       </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
         <v>1105</v>
       </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
         <v>1106</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
         <v>1107</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
         <v>1108</v>
       </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
         <v>1109</v>
       </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
         <v>1110</v>
       </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
         <v>1111</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
         <v>1112</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
         <v>1113</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>1114</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>1115</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>1116</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>1117</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>1118</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>1119</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>1120</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>1121</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>1122</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>1123</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>1124</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>1125</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>1126</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>1127</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>1128</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>1129</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>1130</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B2:B33)</f>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:N34" si="1">SUM(C2:C33)</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>1201</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>1202</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>1203</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>1204</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>1205</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>1206</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>1207</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>1208</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>1209</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>1210</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>1211</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>1212</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>1213</v>
       </c>
